--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H2">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I2">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J2">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.13976306460805</v>
+        <v>1.147652333333333</v>
       </c>
       <c r="N2">
-        <v>1.13976306460805</v>
+        <v>3.442957</v>
       </c>
       <c r="O2">
-        <v>0.467824167880824</v>
+        <v>0.4117684485751235</v>
       </c>
       <c r="P2">
-        <v>0.467824167880824</v>
+        <v>0.4117684485751233</v>
       </c>
       <c r="Q2">
-        <v>3.47991627785589</v>
+        <v>4.468211064330999</v>
       </c>
       <c r="R2">
-        <v>3.47991627785589</v>
+        <v>40.21389957897899</v>
       </c>
       <c r="S2">
-        <v>0.3938376650080778</v>
+        <v>0.2744853441337432</v>
       </c>
       <c r="T2">
-        <v>0.3938376650080778</v>
+        <v>0.2744853441337431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H3">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I3">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J3">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.325944761433446</v>
+        <v>0.2689343333333333</v>
       </c>
       <c r="N3">
-        <v>0.325944761433446</v>
+        <v>0.8068029999999999</v>
       </c>
       <c r="O3">
-        <v>0.1337864346789946</v>
+        <v>0.09649148090311768</v>
       </c>
       <c r="P3">
-        <v>0.1337864346789946</v>
+        <v>0.09649148090311765</v>
       </c>
       <c r="Q3">
-        <v>0.9951721688613948</v>
+        <v>1.047055217749</v>
       </c>
       <c r="R3">
-        <v>0.9951721688613948</v>
+        <v>9.423496959740998</v>
       </c>
       <c r="S3">
-        <v>0.112628078370576</v>
+        <v>0.06432133747332204</v>
       </c>
       <c r="T3">
-        <v>0.112628078370576</v>
+        <v>0.06432133747332201</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H4">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I4">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J4">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.397797892585466</v>
+        <v>0.377781</v>
       </c>
       <c r="N4">
-        <v>0.397797892585466</v>
+        <v>1.133343</v>
       </c>
       <c r="O4">
-        <v>0.1632790830500708</v>
+        <v>0.1355447915305001</v>
       </c>
       <c r="P4">
-        <v>0.1632790830500708</v>
+        <v>0.1355447915305001</v>
       </c>
       <c r="Q4">
-        <v>1.214553624950968</v>
+        <v>1.470833278569</v>
       </c>
       <c r="R4">
-        <v>1.214553624950968</v>
+        <v>13.237499507121</v>
       </c>
       <c r="S4">
-        <v>0.1374564574215871</v>
+        <v>0.09035432140934925</v>
       </c>
       <c r="T4">
-        <v>0.1374564574215871</v>
+        <v>0.09035432140934925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.05319270812885</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H5">
-        <v>3.05319270812885</v>
+        <v>11.680047</v>
       </c>
       <c r="I5">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J5">
-        <v>0.841849763324767</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.572800788946198</v>
+        <v>0.4071873333333333</v>
       </c>
       <c r="N5">
-        <v>0.572800788946198</v>
+        <v>1.221562</v>
       </c>
       <c r="O5">
-        <v>0.2351103143901106</v>
+        <v>0.1460955479776033</v>
       </c>
       <c r="P5">
-        <v>0.2351103143901106</v>
+        <v>0.1460955479776032</v>
       </c>
       <c r="Q5">
-        <v>1.748871192020984</v>
+        <v>1.585322397046</v>
       </c>
       <c r="R5">
-        <v>1.748871192020984</v>
+        <v>14.267901573414</v>
       </c>
       <c r="S5">
-        <v>0.1979275625245262</v>
+        <v>0.09738746837404696</v>
       </c>
       <c r="T5">
-        <v>0.1979275625245262</v>
+        <v>0.09738746837404695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.573574015746792</v>
+        <v>3.893348999999999</v>
       </c>
       <c r="H6">
-        <v>0.573574015746792</v>
+        <v>11.680047</v>
       </c>
       <c r="I6">
-        <v>0.158150236675233</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="J6">
-        <v>0.158150236675233</v>
+        <v>0.6666012053219901</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.13976306460805</v>
+        <v>0.5855753333333333</v>
       </c>
       <c r="N6">
-        <v>1.13976306460805</v>
+        <v>1.756726</v>
       </c>
       <c r="O6">
-        <v>0.467824167880824</v>
+        <v>0.2100997310136555</v>
       </c>
       <c r="P6">
-        <v>0.467824167880824</v>
+        <v>0.2100997310136555</v>
       </c>
       <c r="Q6">
-        <v>0.6537384779671096</v>
+        <v>2.279849138458</v>
       </c>
       <c r="R6">
-        <v>0.6537384779671096</v>
+        <v>20.518642246122</v>
       </c>
       <c r="S6">
-        <v>0.07398650287274623</v>
+        <v>0.1400527339315287</v>
       </c>
       <c r="T6">
-        <v>0.07398650287274623</v>
+        <v>0.1400527339315286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.573574015746792</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
-        <v>0.573574015746792</v>
+        <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="J7">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.325944761433446</v>
+        <v>1.147652333333333</v>
       </c>
       <c r="N7">
-        <v>0.325944761433446</v>
+        <v>3.442957</v>
       </c>
       <c r="O7">
-        <v>0.1337864346789946</v>
+        <v>0.4117684485751235</v>
       </c>
       <c r="P7">
-        <v>0.1337864346789946</v>
+        <v>0.4117684485751233</v>
       </c>
       <c r="Q7">
-        <v>0.1869534457270117</v>
+        <v>0.9139050094432221</v>
       </c>
       <c r="R7">
-        <v>0.1869534457270117</v>
+        <v>8.225145084988998</v>
       </c>
       <c r="S7">
-        <v>0.02115835630841859</v>
+        <v>0.05614182665297472</v>
       </c>
       <c r="T7">
-        <v>0.02115835630841859</v>
+        <v>0.05614182665297471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.573574015746792</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
-        <v>0.573574015746792</v>
+        <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="J8">
-        <v>0.158150236675233</v>
+        <v>0.1363431968798167</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.397797892585466</v>
+        <v>0.2689343333333333</v>
       </c>
       <c r="N8">
-        <v>0.397797892585466</v>
+        <v>0.8068029999999999</v>
       </c>
       <c r="O8">
-        <v>0.1632790830500708</v>
+        <v>0.09649148090311768</v>
       </c>
       <c r="P8">
-        <v>0.1632790830500708</v>
+        <v>0.09649148090311765</v>
       </c>
       <c r="Q8">
-        <v>0.2281665347058567</v>
+        <v>0.2141593122812222</v>
       </c>
       <c r="R8">
-        <v>0.2281665347058567</v>
+        <v>1.927433810531</v>
       </c>
       <c r="S8">
-        <v>0.02582262562848372</v>
+        <v>0.01315595697799884</v>
       </c>
       <c r="T8">
-        <v>0.02582262562848372</v>
+        <v>0.01315595697799884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,1115 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.388977</v>
+      </c>
+      <c r="I9">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J9">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.377781</v>
+      </c>
+      <c r="N9">
+        <v>1.133343</v>
+      </c>
+      <c r="O9">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P9">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q9">
+        <v>0.300836706679</v>
+      </c>
+      <c r="R9">
+        <v>2.707530360110999</v>
+      </c>
+      <c r="S9">
+        <v>0.01848061019767668</v>
+      </c>
+      <c r="T9">
+        <v>0.01848061019767668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.388977</v>
+      </c>
+      <c r="I10">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J10">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.221562</v>
+      </c>
+      <c r="O10">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P10">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q10">
+        <v>0.3242537246748889</v>
+      </c>
+      <c r="R10">
+        <v>2.918283522074</v>
+      </c>
+      <c r="S10">
+        <v>0.01991913406117506</v>
+      </c>
+      <c r="T10">
+        <v>0.01991913406117506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.573574015746792</v>
-      </c>
-      <c r="H9">
-        <v>0.573574015746792</v>
-      </c>
-      <c r="I9">
-        <v>0.158150236675233</v>
-      </c>
-      <c r="J9">
-        <v>0.158150236675233</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.572800788946198</v>
-      </c>
-      <c r="N9">
-        <v>0.572800788946198</v>
-      </c>
-      <c r="O9">
-        <v>0.2351103143901106</v>
-      </c>
-      <c r="P9">
-        <v>0.2351103143901106</v>
-      </c>
-      <c r="Q9">
-        <v>0.3285436487388015</v>
-      </c>
-      <c r="R9">
-        <v>0.3285436487388015</v>
-      </c>
-      <c r="S9">
-        <v>0.03718275186558442</v>
-      </c>
-      <c r="T9">
-        <v>0.03718275186558442</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.7963256666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.388977</v>
+      </c>
+      <c r="I11">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="J11">
+        <v>0.1363431968798167</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.756726</v>
+      </c>
+      <c r="O11">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P11">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q11">
+        <v>0.4663086677002222</v>
+      </c>
+      <c r="R11">
+        <v>4.196778009301999</v>
+      </c>
+      <c r="S11">
+        <v>0.02864566898999136</v>
+      </c>
+      <c r="T11">
+        <v>0.02864566898999135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.188156</v>
+      </c>
+      <c r="H12">
+        <v>0.564468</v>
+      </c>
+      <c r="I12">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J12">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.147652333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.442957</v>
+      </c>
+      <c r="O12">
+        <v>0.4117684485751235</v>
+      </c>
+      <c r="P12">
+        <v>0.4117684485751233</v>
+      </c>
+      <c r="Q12">
+        <v>0.2159376724306666</v>
+      </c>
+      <c r="R12">
+        <v>1.943439051876</v>
+      </c>
+      <c r="S12">
+        <v>0.0132652028910916</v>
+      </c>
+      <c r="T12">
+        <v>0.0132652028910916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.188156</v>
+      </c>
+      <c r="H13">
+        <v>0.564468</v>
+      </c>
+      <c r="I13">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J13">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.09649148090311768</v>
+      </c>
+      <c r="P13">
+        <v>0.09649148090311765</v>
+      </c>
+      <c r="Q13">
+        <v>0.05060160842266666</v>
+      </c>
+      <c r="R13">
+        <v>0.455414475804</v>
+      </c>
+      <c r="S13">
+        <v>0.003108492347752637</v>
+      </c>
+      <c r="T13">
+        <v>0.003108492347752636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.188156</v>
+      </c>
+      <c r="H14">
+        <v>0.564468</v>
+      </c>
+      <c r="I14">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J14">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.377781</v>
+      </c>
+      <c r="N14">
+        <v>1.133343</v>
+      </c>
+      <c r="O14">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P14">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q14">
+        <v>0.071081761836</v>
+      </c>
+      <c r="R14">
+        <v>0.639735856524</v>
+      </c>
+      <c r="S14">
+        <v>0.004366602557103799</v>
+      </c>
+      <c r="T14">
+        <v>0.004366602557103799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.188156</v>
+      </c>
+      <c r="H15">
+        <v>0.564468</v>
+      </c>
+      <c r="I15">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J15">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.221562</v>
+      </c>
+      <c r="O15">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P15">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q15">
+        <v>0.07661473989066667</v>
+      </c>
+      <c r="R15">
+        <v>0.689532659016</v>
+      </c>
+      <c r="S15">
+        <v>0.004706497285341536</v>
+      </c>
+      <c r="T15">
+        <v>0.004706497285341535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.188156</v>
+      </c>
+      <c r="H16">
+        <v>0.564468</v>
+      </c>
+      <c r="I16">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="J16">
+        <v>0.03221519991877542</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.756726</v>
+      </c>
+      <c r="O16">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P16">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q16">
+        <v>0.1101795124186667</v>
+      </c>
+      <c r="R16">
+        <v>0.9916156117679999</v>
+      </c>
+      <c r="S16">
+        <v>0.006768404837485853</v>
+      </c>
+      <c r="T16">
+        <v>0.006768404837485852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.923495</v>
+      </c>
+      <c r="I17">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J17">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.147652333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.442957</v>
+      </c>
+      <c r="O17">
+        <v>0.4117684485751235</v>
+      </c>
+      <c r="P17">
+        <v>0.4117684485751233</v>
+      </c>
+      <c r="Q17">
+        <v>0.3532837305238889</v>
+      </c>
+      <c r="R17">
+        <v>3.179553574715</v>
+      </c>
+      <c r="S17">
+        <v>0.02170246771102815</v>
+      </c>
+      <c r="T17">
+        <v>0.02170246771102814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.923495</v>
+      </c>
+      <c r="I18">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J18">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.09649148090311768</v>
+      </c>
+      <c r="P18">
+        <v>0.09649148090311765</v>
+      </c>
+      <c r="Q18">
+        <v>0.08278650405388889</v>
+      </c>
+      <c r="R18">
+        <v>0.7450785364849999</v>
+      </c>
+      <c r="S18">
+        <v>0.005085633092908406</v>
+      </c>
+      <c r="T18">
+        <v>0.005085633092908403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.923495</v>
+      </c>
+      <c r="I19">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J19">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.377781</v>
+      </c>
+      <c r="N19">
+        <v>1.133343</v>
+      </c>
+      <c r="O19">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P19">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q19">
+        <v>0.116292954865</v>
+      </c>
+      <c r="R19">
+        <v>1.046636593785</v>
+      </c>
+      <c r="S19">
+        <v>0.007143957901019319</v>
+      </c>
+      <c r="T19">
+        <v>0.007143957901019318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.923495</v>
+      </c>
+      <c r="I20">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J20">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.221562</v>
+      </c>
+      <c r="O20">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P20">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q20">
+        <v>0.1253451554655556</v>
+      </c>
+      <c r="R20">
+        <v>1.12810639919</v>
+      </c>
+      <c r="S20">
+        <v>0.007700040942137521</v>
+      </c>
+      <c r="T20">
+        <v>0.007700040942137518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3078316666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.923495</v>
+      </c>
+      <c r="I21">
+        <v>0.05270551395117086</v>
+      </c>
+      <c r="J21">
+        <v>0.05270551395117085</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.756726</v>
+      </c>
+      <c r="O21">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P21">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q21">
+        <v>0.1802586308188889</v>
+      </c>
+      <c r="R21">
+        <v>1.62232767737</v>
+      </c>
+      <c r="S21">
+        <v>0.01107341430407746</v>
+      </c>
+      <c r="T21">
+        <v>0.01107341430407746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.964804</v>
+      </c>
+      <c r="I22">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J22">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.147652333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.442957</v>
+      </c>
+      <c r="O22">
+        <v>0.4117684485751235</v>
+      </c>
+      <c r="P22">
+        <v>0.4117684485751233</v>
+      </c>
+      <c r="Q22">
+        <v>0.7516372983808889</v>
+      </c>
+      <c r="R22">
+        <v>6.764735685428</v>
+      </c>
+      <c r="S22">
+        <v>0.04617360718628574</v>
+      </c>
+      <c r="T22">
+        <v>0.04617360718628573</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.964804</v>
+      </c>
+      <c r="I23">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J23">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2689343333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.8068029999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.09649148090311768</v>
+      </c>
+      <c r="P23">
+        <v>0.09649148090311765</v>
+      </c>
+      <c r="Q23">
+        <v>0.1761344179568889</v>
+      </c>
+      <c r="R23">
+        <v>1.585209761612</v>
+      </c>
+      <c r="S23">
+        <v>0.01082006101113575</v>
+      </c>
+      <c r="T23">
+        <v>0.01082006101113574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.964804</v>
+      </c>
+      <c r="I24">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J24">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.377781</v>
+      </c>
+      <c r="N24">
+        <v>1.133343</v>
+      </c>
+      <c r="O24">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="P24">
+        <v>0.1355447915305001</v>
+      </c>
+      <c r="Q24">
+        <v>0.247421873308</v>
+      </c>
+      <c r="R24">
+        <v>2.226796859772</v>
+      </c>
+      <c r="S24">
+        <v>0.01519929946535104</v>
+      </c>
+      <c r="T24">
+        <v>0.01519929946535104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.964804</v>
+      </c>
+      <c r="I25">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J25">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4071873333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.221562</v>
+      </c>
+      <c r="O25">
+        <v>0.1460955479776033</v>
+      </c>
+      <c r="P25">
+        <v>0.1460955479776032</v>
+      </c>
+      <c r="Q25">
+        <v>0.2666811004275556</v>
+      </c>
+      <c r="R25">
+        <v>2.400129903848</v>
+      </c>
+      <c r="S25">
+        <v>0.01638240731490216</v>
+      </c>
+      <c r="T25">
+        <v>0.01638240731490215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6549346666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.964804</v>
+      </c>
+      <c r="I26">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="J26">
+        <v>0.1121348839282468</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5855753333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.756726</v>
+      </c>
+      <c r="O26">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="P26">
+        <v>0.2100997310136555</v>
+      </c>
+      <c r="Q26">
+        <v>0.3835135857448889</v>
+      </c>
+      <c r="R26">
+        <v>3.451622271704</v>
+      </c>
+      <c r="S26">
+        <v>0.02355950895057214</v>
+      </c>
+      <c r="T26">
+        <v>0.02355950895057214</v>
       </c>
     </row>
   </sheetData>
